--- a/paper/structure_blank.xlsx
+++ b/paper/structure_blank.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>X1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>X3</t>
+  </si>
+  <si>
+    <t>X4</t>
+  </si>
+  <si>
+    <t>X5</t>
   </si>
   <si>
     <t>Y1</t>
@@ -39,10 +45,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -59,6 +65,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -66,17 +94,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,7 +111,22 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,13 +148,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -137,15 +164,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,15 +189,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,28 +204,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,13 +218,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,13 +266,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,13 +278,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,108 +309,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,7 +332,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,11 +457,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,17 +487,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,17 +507,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,9 +528,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,153 +545,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -794,13 +800,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>140970</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>158115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>140970</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
@@ -812,8 +818,57 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3104515" y="320040"/>
-          <a:ext cx="0" cy="344805"/>
+          <a:off x="656590" y="320040"/>
+          <a:ext cx="0" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>98425</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12065</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Straight Arrow Connector 45"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="10" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="911225" y="1943100"/>
+          <a:ext cx="489585" cy="412750"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -848,55 +903,6 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>12065</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="Straight Arrow Connector 45"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="10" idx="6"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3359150" y="1958340"/>
-          <a:ext cx="489585" cy="416560"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>98425</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
       <xdr:colOff>13335</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>86360</xdr:rowOff>
@@ -910,8 +916,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4232275" y="1958340"/>
-          <a:ext cx="490855" cy="414020"/>
+          <a:off x="1784350" y="1943100"/>
+          <a:ext cx="490855" cy="410210"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -939,13 +945,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>102870</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>5080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>10160</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>90170</xdr:rowOff>
@@ -959,7 +965,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5109845" y="1967230"/>
+          <a:off x="2661920" y="1948180"/>
           <a:ext cx="483235" cy="408940"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -988,13 +994,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>103505</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>172085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>86995</xdr:rowOff>
@@ -1008,7 +1014,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5983605" y="1962150"/>
+          <a:off x="3535680" y="1943100"/>
           <a:ext cx="478790" cy="410845"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1037,13 +1043,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>93345</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>3175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>6985</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>81915</xdr:rowOff>
@@ -1057,7 +1063,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4227195" y="4089400"/>
+          <a:off x="1779270" y="4051300"/>
           <a:ext cx="489585" cy="402590"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1086,13 +1092,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>5715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>3175</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -1106,7 +1112,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5092700" y="4091940"/>
+          <a:off x="2644775" y="4053840"/>
           <a:ext cx="493395" cy="403860"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1135,13 +1141,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>94615</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>170815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
@@ -1155,8 +1161,55 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3355340" y="4085590"/>
-          <a:ext cx="490855" cy="407035"/>
+          <a:off x="907415" y="4048125"/>
+          <a:ext cx="490855" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>151130</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>151130</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="Straight Arrow Connector 64"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1539875" y="323850"/>
+          <a:ext cx="0" cy="335280"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1186,24 +1239,24 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>151130</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>151130</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="65" name="Straight Arrow Connector 64"/>
+        <xdr:cNvPr id="66" name="Straight Arrow Connector 65"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3987800" y="323850"/>
-          <a:ext cx="0" cy="344805"/>
+          <a:off x="2413000" y="320675"/>
+          <a:ext cx="0" cy="335280"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1232,25 +1285,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>151130</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>151130</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>8255</xdr:rowOff>
+      <xdr:rowOff>17780</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="66" name="Straight Arrow Connector 65"/>
+        <xdr:cNvPr id="67" name="Straight Arrow Connector 66"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4860925" y="320675"/>
-          <a:ext cx="0" cy="344805"/>
+          <a:off x="3287395" y="330200"/>
+          <a:ext cx="0" cy="335280"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1279,59 +1332,12 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>17780</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="67" name="Straight Arrow Connector 66"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5735320" y="330200"/>
-          <a:ext cx="0" cy="344805"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
       <xdr:colOff>150495</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>150495</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
@@ -1343,8 +1349,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6606540" y="327660"/>
-          <a:ext cx="0" cy="344805"/>
+          <a:off x="4158615" y="327660"/>
+          <a:ext cx="0" cy="335280"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1372,13 +1378,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>273050</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>153035</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>86360</xdr:rowOff>
@@ -1390,8 +1396,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3533775" y="495300"/>
-          <a:ext cx="455930" cy="4648835"/>
+          <a:off x="1085850" y="495300"/>
+          <a:ext cx="455930" cy="4610735"/>
           <a:chOff x="5536" y="767"/>
           <a:chExt cx="718" cy="8326"/>
         </a:xfrm>
@@ -1493,13 +1499,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>271780</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>151765</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
@@ -1511,8 +1517,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4405630" y="495300"/>
-          <a:ext cx="455930" cy="4641850"/>
+          <a:off x="1957705" y="495300"/>
+          <a:ext cx="455930" cy="4603750"/>
           <a:chOff x="5536" y="767"/>
           <a:chExt cx="718" cy="8326"/>
         </a:xfrm>
@@ -1614,13 +1620,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>2540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>146050</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>90170</xdr:rowOff>
@@ -1632,8 +1638,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2654300" y="488315"/>
-          <a:ext cx="455295" cy="4659630"/>
+          <a:off x="295275" y="488315"/>
+          <a:ext cx="366395" cy="4621530"/>
           <a:chOff x="5536" y="767"/>
           <a:chExt cx="718" cy="8326"/>
         </a:xfrm>
@@ -1735,13 +1741,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>156210</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>156210</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
@@ -1753,7 +1759,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3119755" y="1971675"/>
+          <a:off x="671830" y="1952625"/>
           <a:ext cx="0" cy="156210"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1782,13 +1788,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>5715</xdr:rowOff>
@@ -1800,478 +1806,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4004310" y="1973580"/>
+          <a:off x="1556385" y="1954530"/>
           <a:ext cx="0" cy="156210"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="15875">
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>159385</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>159385</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>5715</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="92" name="Straight Arrow Connector 91"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4869180" y="1973580"/>
-          <a:ext cx="0" cy="156210"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="15875">
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>5715</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="93" name="Straight Arrow Connector 92"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5742940" y="1973580"/>
-          <a:ext cx="0" cy="156210"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="15875">
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>155575</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>155575</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="94" name="Straight Arrow Connector 93"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3119120" y="2617470"/>
-          <a:ext cx="0" cy="165735"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="15875">
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>156210</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>8255</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>156210</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>2540</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="95" name="Straight Arrow Connector 94"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3992880" y="2618105"/>
-          <a:ext cx="0" cy="165735"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="15875">
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>5715</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="96" name="Straight Arrow Connector 95"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4874895" y="2621280"/>
-          <a:ext cx="0" cy="165735"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="15875">
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>168275</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>14605</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>168275</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>8890</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="97" name="Straight Arrow Connector 96"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5751195" y="2624455"/>
-          <a:ext cx="0" cy="165735"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="15875">
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>151765</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>10160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>151765</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="98" name="Straight Arrow Connector 97"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3115310" y="4096385"/>
-          <a:ext cx="0" cy="155575"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="15875">
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>148590</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>148590</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="100" name="Straight Arrow Connector 99"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3985260" y="4095750"/>
-          <a:ext cx="0" cy="156210"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="15875">
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>145415</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>145415</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>10160</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="101" name="Straight Arrow Connector 100"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4855210" y="4102100"/>
-          <a:ext cx="0" cy="156210"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="15875">
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>155575</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>5080</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>155575</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>160655</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="103" name="Straight Arrow Connector 102"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3119120" y="4739005"/>
-          <a:ext cx="0" cy="155575"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2301,11 +1837,481 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>159385</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>159385</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>5715</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="Straight Arrow Connector 91"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2421255" y="1954530"/>
+          <a:ext cx="0" cy="156210"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>5715</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="Straight Arrow Connector 92"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3295015" y="1954530"/>
+          <a:ext cx="0" cy="156210"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>155575</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>155575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="Straight Arrow Connector 93"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="671195" y="2598420"/>
+          <a:ext cx="0" cy="156210"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>156210</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>8255</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>156210</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="Straight Arrow Connector 94"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1544955" y="2599055"/>
+          <a:ext cx="0" cy="156210"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>5715</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="Straight Arrow Connector 95"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2426970" y="2602230"/>
+          <a:ext cx="0" cy="156210"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>168275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>14605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>168275</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="Straight Arrow Connector 96"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3303270" y="2605405"/>
+          <a:ext cx="0" cy="156210"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>151765</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>151765</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="Straight Arrow Connector 97"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="667385" y="4058285"/>
+          <a:ext cx="0" cy="155575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>148590</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>148590</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="Straight Arrow Connector 99"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1537335" y="4057650"/>
+          <a:ext cx="0" cy="156210"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>145415</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>145415</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="101" name="Straight Arrow Connector 100"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2407285" y="4064000"/>
+          <a:ext cx="0" cy="156210"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>155575</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>155575</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>160655</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="Straight Arrow Connector 102"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="671195" y="4700905"/>
+          <a:ext cx="0" cy="155575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>159385</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>4445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>159385</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
@@ -2317,7 +2323,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3996055" y="4738370"/>
+          <a:off x="1548130" y="4700270"/>
           <a:ext cx="0" cy="155575"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2346,13 +2352,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>151130</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>10160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>151130</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
@@ -2364,7 +2370,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4860925" y="4744085"/>
+          <a:off x="2413000" y="4705985"/>
           <a:ext cx="0" cy="155575"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2393,13 +2399,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>149860</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>10795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>149860</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>4445</xdr:rowOff>
@@ -2411,7 +2417,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4859655" y="5392420"/>
+          <a:off x="2411730" y="5354320"/>
           <a:ext cx="0" cy="155575"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2440,13 +2446,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>158115</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>157480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>158115</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>151130</xdr:rowOff>
@@ -2458,7 +2464,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3994785" y="5377180"/>
+          <a:off x="1546860" y="5339080"/>
           <a:ext cx="0" cy="155575"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2487,13 +2493,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>167005</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>167005</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>155575</xdr:rowOff>
@@ -2505,7 +2511,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3130550" y="5381625"/>
+          <a:off x="682625" y="5343525"/>
           <a:ext cx="0" cy="155575"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2534,13 +2540,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>125095</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>3175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>104140</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>159385</xdr:rowOff>
@@ -2552,7 +2558,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2868295" y="2127250"/>
+          <a:off x="420370" y="2108200"/>
           <a:ext cx="496570" cy="480060"/>
           <a:chOff x="11343" y="1007"/>
           <a:chExt cx="782" cy="746"/>
@@ -2759,13 +2765,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>122555</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>5715</xdr:rowOff>
@@ -2777,7 +2783,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3738880" y="2135505"/>
+          <a:off x="1290955" y="2116455"/>
           <a:ext cx="496570" cy="480060"/>
           <a:chOff x="11343" y="1007"/>
           <a:chExt cx="782" cy="746"/>
@@ -2984,13 +2990,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>121285</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>100330</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>5715</xdr:rowOff>
@@ -3002,7 +3008,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4610735" y="2135505"/>
+          <a:off x="2162810" y="2116455"/>
           <a:ext cx="496570" cy="480060"/>
           <a:chOff x="11343" y="1007"/>
           <a:chExt cx="782" cy="746"/>
@@ -3209,13 +3215,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>124460</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>5715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>103505</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3227,7 +3233,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5487035" y="2129790"/>
+          <a:off x="3039110" y="2110740"/>
           <a:ext cx="496570" cy="480060"/>
           <a:chOff x="11343" y="1007"/>
           <a:chExt cx="782" cy="746"/>
@@ -3434,13 +3440,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>109220</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>10795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>88265</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>5080</xdr:rowOff>
@@ -3452,7 +3458,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4598670" y="4258945"/>
+          <a:off x="2150745" y="4220845"/>
           <a:ext cx="496570" cy="480060"/>
           <a:chOff x="11343" y="1007"/>
           <a:chExt cx="782" cy="746"/>
@@ -3659,13 +3665,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>109220</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>5080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>88265</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>161290</xdr:rowOff>
@@ -3677,7 +3683,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3725545" y="4253230"/>
+          <a:off x="1277620" y="4215130"/>
           <a:ext cx="496570" cy="480060"/>
           <a:chOff x="11343" y="1007"/>
           <a:chExt cx="782" cy="746"/>
@@ -3884,13 +3890,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>117475</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>10160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>96520</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>4445</xdr:rowOff>
@@ -3902,7 +3908,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2860675" y="4258310"/>
+          <a:off x="412750" y="4220210"/>
           <a:ext cx="496570" cy="480060"/>
           <a:chOff x="11343" y="1007"/>
           <a:chExt cx="782" cy="746"/>
@@ -4109,13 +4115,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>135890</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>1270</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>114935</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>157480</xdr:rowOff>
@@ -4127,7 +4133,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2879090" y="4897120"/>
+          <a:off x="431165" y="4859020"/>
           <a:ext cx="496570" cy="480060"/>
           <a:chOff x="11343" y="1007"/>
           <a:chExt cx="782" cy="746"/>
@@ -4334,13 +4340,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>5715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -4352,7 +4358,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3759200" y="4901565"/>
+          <a:off x="1311275" y="4863465"/>
           <a:ext cx="496570" cy="480060"/>
           <a:chOff x="11343" y="1007"/>
           <a:chExt cx="782" cy="746"/>
@@ -4559,13 +4565,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>130175</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>10795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>109220</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>5080</xdr:rowOff>
@@ -4577,7 +4583,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4619625" y="4906645"/>
+          <a:off x="2171700" y="4868545"/>
           <a:ext cx="496570" cy="480060"/>
           <a:chOff x="11343" y="1007"/>
           <a:chExt cx="782" cy="746"/>
@@ -5043,14 +5049,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="E2:R35"/>
+  <dimension ref="B2:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="2" max="2" width="2.89166666666667" customWidth="1"/>
+    <col min="3" max="3" width="3.9" customWidth="1"/>
+    <col min="4" max="4" width="4.66666666666667" customWidth="1"/>
     <col min="5" max="5" width="2.89166666666667" customWidth="1"/>
     <col min="6" max="6" width="3.9" customWidth="1"/>
     <col min="7" max="7" width="4.66666666666667" customWidth="1"/>
@@ -5062,36 +5072,37 @@
     <col min="13" max="13" width="4.66666666666667" customWidth="1"/>
     <col min="14" max="14" width="2.89166666666667" customWidth="1"/>
     <col min="15" max="15" width="3.9" customWidth="1"/>
-    <col min="16" max="16" width="4.66666666666667" customWidth="1"/>
-    <col min="17" max="17" width="2.89166666666667" customWidth="1"/>
-    <col min="18" max="18" width="3.9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="6:18">
+    <row r="2" spans="3:15">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="F2" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="2">
         <v>0</v>
       </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" ht="13.5"/>
-    <row r="5" spans="5:18">
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="2">
         <v>0</v>
       </c>
@@ -5110,14 +5121,14 @@
       <c r="N5" s="2">
         <v>0</v>
       </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="2">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7"/>
+      <c r="O5" s="7"/>
     </row>
-    <row r="6" spans="5:18">
+    <row r="6" spans="2:15">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="2">
         <v>1</v>
       </c>
@@ -5136,14 +5147,14 @@
       <c r="N6" s="2">
         <v>1</v>
       </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="2">
-        <v>1</v>
-      </c>
-      <c r="R6" s="8"/>
+      <c r="O6" s="8"/>
     </row>
-    <row r="7" spans="5:18">
+    <row r="7" spans="2:15">
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="2">
         <v>2</v>
       </c>
@@ -5162,14 +5173,14 @@
       <c r="N7" s="2">
         <v>2</v>
       </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="2">
-        <v>2</v>
-      </c>
-      <c r="R7" s="8"/>
+      <c r="O7" s="8"/>
     </row>
-    <row r="8" spans="5:18">
+    <row r="8" spans="2:15">
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="2">
         <v>3</v>
       </c>
@@ -5188,14 +5199,14 @@
       <c r="N8" s="2">
         <v>3</v>
       </c>
-      <c r="O8" s="5"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="2">
-        <v>3</v>
-      </c>
-      <c r="R8" s="8"/>
+      <c r="O8" s="8"/>
     </row>
-    <row r="9" spans="5:18">
+    <row r="9" spans="2:15">
+      <c r="B9" s="2">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="2">
         <v>4</v>
       </c>
@@ -5214,14 +5225,14 @@
       <c r="N9" s="2">
         <v>4</v>
       </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="2">
-        <v>4</v>
-      </c>
-      <c r="R9" s="8"/>
+      <c r="O9" s="8"/>
     </row>
-    <row r="10" spans="5:18">
+    <row r="10" spans="2:15">
+      <c r="B10" s="2">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="2">
         <v>5</v>
       </c>
@@ -5240,14 +5251,14 @@
       <c r="N10" s="2">
         <v>5</v>
       </c>
-      <c r="O10" s="5"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="2">
-        <v>5</v>
-      </c>
-      <c r="R10" s="8"/>
+      <c r="O10" s="8"/>
     </row>
-    <row r="11" spans="5:18">
+    <row r="11" spans="2:15">
+      <c r="B11" s="2">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="2">
         <v>6</v>
       </c>
@@ -5266,14 +5277,14 @@
       <c r="N11" s="2">
         <v>6</v>
       </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="2">
-        <v>6</v>
-      </c>
-      <c r="R11" s="8"/>
+      <c r="O11" s="8"/>
     </row>
-    <row r="12" ht="13.5" spans="5:18">
+    <row r="12" spans="2:15">
+      <c r="B12" s="2">
+        <v>7</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="2">
         <v>7</v>
       </c>
@@ -5292,14 +5303,12 @@
       <c r="N12" s="2">
         <v>7</v>
       </c>
-      <c r="O12" s="6"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="2">
-        <v>7</v>
-      </c>
-      <c r="R12" s="9"/>
+      <c r="O12" s="9"/>
     </row>
-    <row r="13" spans="5:17">
+    <row r="13" spans="2:14">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -5310,11 +5319,11 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
     </row>
-    <row r="14" spans="5:17">
+    <row r="14" spans="2:14">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -5325,11 +5334,11 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
     </row>
-    <row r="15" spans="5:17">
+    <row r="15" spans="2:14">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -5340,11 +5349,11 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
     </row>
-    <row r="16" spans="5:17">
+    <row r="16" spans="2:14">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -5355,11 +5364,11 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
     </row>
-    <row r="17" ht="13.5" spans="5:17">
+    <row r="17" spans="2:14">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -5370,11 +5379,13 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
     </row>
-    <row r="18" spans="5:17">
+    <row r="18" spans="2:14">
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="2">
         <v>0</v>
       </c>
@@ -5390,14 +5401,14 @@
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="2">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
+      <c r="N18" s="4"/>
     </row>
-    <row r="19" spans="5:17">
+    <row r="19" spans="2:14">
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="2">
         <v>1</v>
       </c>
@@ -5413,14 +5424,14 @@
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="2">
-        <v>1</v>
-      </c>
-      <c r="O19" s="5"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
+      <c r="N19" s="4"/>
     </row>
-    <row r="20" spans="5:17">
+    <row r="20" spans="2:14">
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="2">
         <v>2</v>
       </c>
@@ -5436,14 +5447,14 @@
       </c>
       <c r="L20" s="5"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="2">
-        <v>2</v>
-      </c>
-      <c r="O20" s="5"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
+      <c r="N20" s="4"/>
     </row>
-    <row r="21" spans="5:17">
+    <row r="21" spans="2:14">
+      <c r="B21" s="2">
+        <v>3</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="2">
         <v>3</v>
       </c>
@@ -5459,14 +5470,14 @@
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="2">
-        <v>3</v>
-      </c>
-      <c r="O21" s="5"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
+      <c r="N21" s="4"/>
     </row>
-    <row r="22" spans="5:17">
+    <row r="22" spans="2:14">
+      <c r="B22" s="2">
+        <v>4</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="2">
         <v>4</v>
       </c>
@@ -5482,14 +5493,14 @@
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="2">
-        <v>4</v>
-      </c>
-      <c r="O22" s="5"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
+      <c r="N22" s="4"/>
     </row>
-    <row r="23" spans="5:17">
+    <row r="23" spans="2:14">
+      <c r="B23" s="2">
+        <v>5</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="2">
         <v>5</v>
       </c>
@@ -5505,14 +5516,14 @@
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="4"/>
-      <c r="N23" s="2">
-        <v>5</v>
-      </c>
-      <c r="O23" s="5"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
+      <c r="N23" s="4"/>
     </row>
-    <row r="24" spans="5:17">
+    <row r="24" spans="2:14">
+      <c r="B24" s="2">
+        <v>6</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="2">
         <v>6</v>
       </c>
@@ -5528,14 +5539,14 @@
       </c>
       <c r="L24" s="5"/>
       <c r="M24" s="4"/>
-      <c r="N24" s="2">
-        <v>6</v>
-      </c>
-      <c r="O24" s="5"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
+      <c r="N24" s="4"/>
     </row>
-    <row r="25" ht="13.5" spans="5:17">
+    <row r="25" spans="2:14">
+      <c r="B25" s="2">
+        <v>7</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="2">
         <v>7</v>
       </c>
@@ -5551,26 +5562,21 @@
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="2">
-        <v>7</v>
-      </c>
-      <c r="O25" s="6"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
+      <c r="N25" s="4"/>
     </row>
-    <row r="35" spans="6:12">
+    <row r="35" spans="3:9">
+      <c r="C35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
